--- a/temp/JustDoIt.xlsx
+++ b/temp/JustDoIt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박진석\Documents\GitHub\RestaurantsSurvingRobot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaewon\Desktop\ICT\GitHub\RestaurantsSurvingRobot\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F93AF0-2B2B-41A6-9806-D4B9780BE575}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8600E2-5D67-4529-AED0-905EAB9FD8C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{79197450-9B3D-42D3-86F5-CC79F0E586DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{79197450-9B3D-42D3-86F5-CC79F0E586DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Do it" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>해야할 일</t>
   </si>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>2월21일부터 3월 21일까지 4주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,9 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +289,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,16 +610,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D9A496-8C06-4B80-AD5E-8D8B3AE394B8}">
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -635,7 +639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -644,7 +648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -653,7 +657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -662,7 +666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -671,42 +675,48 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -714,7 +724,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -722,80 +732,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C010228-F296-42B0-8206-C7FEE5CB41D7}">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.58203125" customWidth="1"/>
+    <col min="2" max="2" width="35.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="5" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -804,7 +814,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -813,7 +823,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
@@ -822,7 +832,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
@@ -831,7 +841,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
@@ -840,7 +850,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
@@ -849,7 +859,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
@@ -858,7 +868,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
@@ -867,7 +877,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
@@ -876,7 +886,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -901,14 +911,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -928,7 +938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -936,7 +946,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -944,7 +954,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -952,7 +962,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -960,7 +970,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -968,7 +978,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -976,7 +986,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -984,7 +994,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -992,7 +1002,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1000,7 +1010,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1008,7 +1018,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1016,7 +1026,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1024,7 +1034,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
